--- a/data/trans_dic/P44D-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P44D-Provincia-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.2090754110329297</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.05885308654505216</v>
+        <v>0.05885308654505214</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.3632614115523042</v>
@@ -678,26 +678,26 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07318149472664272</v>
+        <v>0.05136743055092879</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02012474988842489</v>
+        <v>0.02032042809301083</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1001483947346091</v>
+        <v>0.09913111669237898</v>
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
-        <v>0.02669613663473311</v>
+        <v>0.02665723032980069</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1201488218747384</v>
+        <v>0.1195773225517682</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03005224667510837</v>
+        <v>0.02740088831565784</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03427113219342463</v>
+        <v>0.03154514548180731</v>
       </c>
     </row>
     <row r="6">
@@ -708,29 +708,29 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7018527970977017</v>
+        <v>0.7310077327737748</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.457231789205177</v>
+        <v>0.4536872957434566</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1191495707603317</v>
+        <v>0.1224881542775473</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7464077920993196</v>
+        <v>0.7630734664839429</v>
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>0.1488983533474869</v>
+        <v>0.1477231353985012</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6053334704500115</v>
+        <v>0.6085494778433657</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2619807945176778</v>
+        <v>0.2887590062942081</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1057272912738086</v>
+        <v>0.105869005799126</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1000192094369608</v>
+        <v>0.1000192094369607</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.1110318853345244</v>
@@ -760,7 +760,7 @@
         <v>0.1925973931218123</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.0732061371287759</v>
+        <v>0.07320613712877588</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.1211139386751618</v>
@@ -784,7 +784,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="n">
-        <v>0.04654516477655563</v>
+        <v>0.0393036885937607</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
@@ -793,16 +793,16 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02894046652638991</v>
+        <v>0.02867081637429204</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0263460287114551</v>
+        <v>0.02685036983286719</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04551795849610504</v>
+        <v>0.04938428822316965</v>
       </c>
     </row>
     <row r="9">
@@ -813,29 +813,29 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3811730867061019</v>
+        <v>0.3721159977628362</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.1986633984946687</v>
+        <v>0.1924290931243826</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.331643075564534</v>
+        <v>0.327145230626108</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7938206912694401</v>
+        <v>0.7627795707272808</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1633683965046768</v>
+        <v>0.1629178385290853</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2739322712996004</v>
+        <v>0.2728445957256385</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3562338185646916</v>
+        <v>0.2651493668922488</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.158243554300095</v>
+        <v>0.1502432025744808</v>
       </c>
     </row>
     <row r="10">
@@ -865,7 +865,7 @@
         <v>0.07235573397374161</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.09552696499408447</v>
+        <v>0.09552696499408445</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.04757131371237944</v>
@@ -888,26 +888,26 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03931843231875328</v>
+        <v>0.03744059236807482</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0225355939019632</v>
+        <v>0.02406886632697421</v>
       </c>
       <c r="F11" s="5" t="inlineStr"/>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04356305752137546</v>
+        <v>0.04282384947358912</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03075648978882103</v>
+        <v>0.03137299583611282</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04766816266281028</v>
+        <v>0.04976930607882391</v>
       </c>
     </row>
     <row r="12">
@@ -918,29 +918,29 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5079683572171638</v>
+        <v>0.5030913245392997</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3544430234149393</v>
+        <v>0.3541543121417065</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1396329923731468</v>
+        <v>0.130834237587082</v>
       </c>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="n">
-        <v>0.32513748681597</v>
+        <v>0.3990239794583461</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.172981171306873</v>
+        <v>0.1685874137360745</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2105037240119864</v>
+        <v>0.2221708054705556</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2563269847183208</v>
+        <v>0.274871302172801</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1295143872445715</v>
+        <v>0.1345464420115202</v>
       </c>
     </row>
     <row r="13">
@@ -993,28 +993,28 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07294197423686874</v>
+        <v>0.07180538994801315</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04310332940076172</v>
+        <v>0.04527343213410355</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05212535551280611</v>
+        <v>0.05466020182032817</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07931852105586473</v>
+        <v>0.07381964653074781</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0398871762476577</v>
+        <v>0.04017369836547605</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.08734970770341491</v>
+        <v>0.0897931723037637</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07594413999504941</v>
+        <v>0.07324029434292176</v>
       </c>
     </row>
     <row r="15">
@@ -1025,31 +1025,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7449704583449466</v>
+        <v>0.7161820394840775</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3772212227328118</v>
+        <v>0.378898838913327</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1815009695565333</v>
+        <v>0.179925733787008</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2779387978650723</v>
+        <v>0.2727287322547065</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4555004869496992</v>
+        <v>0.4164711063465074</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1960794014934157</v>
+        <v>0.2036773584412545</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4463298782931984</v>
+        <v>0.4681457746405884</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3109474488716214</v>
+        <v>0.3358750959037684</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1610127570667752</v>
+        <v>0.1658046069550171</v>
       </c>
     </row>
     <row r="16">
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.0284003460374227</v>
+        <v>0.02840034603742271</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.07652860144535019</v>
@@ -1088,7 +1088,7 @@
         <v>0.2004729161524254</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.05060405962076053</v>
+        <v>0.05060405962076051</v>
       </c>
     </row>
     <row r="17">
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01550108293858974</v>
+        <v>0.01473348842237153</v>
       </c>
     </row>
     <row r="18">
@@ -1130,27 +1130,27 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6467558091906417</v>
+        <v>0.6326438216136459</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2332958940446793</v>
+        <v>0.2496695299844618</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>0.1576633587156638</v>
+        <v>0.1423520962714264</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3916891228909968</v>
+        <v>0.3958723224637584</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8131336145426604</v>
+        <v>0.7867512023121807</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1411258371438936</v>
+        <v>0.1307076504233329</v>
       </c>
     </row>
     <row r="19">
@@ -1171,7 +1171,7 @@
         <v>0.09662368211746185</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.04221336194570092</v>
+        <v>0.04221336194570093</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.02395454848552305</v>
+        <v>0.02395454848552306</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.06365776030465072</v>
@@ -1189,7 +1189,7 @@
         <v>0.05284461721225565</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.03398645108029558</v>
+        <v>0.0339864510802956</v>
       </c>
     </row>
     <row r="20">
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01259189834828405</v>
+        <v>0.01230752713387135</v>
       </c>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="inlineStr"/>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01229247041761783</v>
+        <v>0.01231493253700094</v>
       </c>
     </row>
     <row r="21">
@@ -1231,27 +1231,27 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4127058918501391</v>
+        <v>0.4652201033341218</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5248137407030861</v>
+        <v>0.435570723137658</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1176250386310895</v>
+        <v>0.1149559557034686</v>
       </c>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="n">
-        <v>0.07389839794410931</v>
+        <v>0.07381901721011898</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3233286484420826</v>
+        <v>0.2809737678380435</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2604735854284129</v>
+        <v>0.3212170294275408</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.07793555495629485</v>
+        <v>0.08149198853531787</v>
       </c>
     </row>
     <row r="22">
@@ -1272,7 +1272,7 @@
         <v>0.1068478403112125</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.1847795865593128</v>
+        <v>0.1847795865593127</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.4450996420036469</v>
@@ -1304,28 +1304,28 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02897129789901982</v>
+        <v>0.02823562132289976</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1208922615376669</v>
+        <v>0.1260659323374013</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2170340777403003</v>
+        <v>0.2238231665644611</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04551988838308648</v>
+        <v>0.04526084736212856</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1722803756357692</v>
+        <v>0.1558857441375212</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04324582635852448</v>
+        <v>0.0327735871279467</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.09373396833372669</v>
+        <v>0.0963935683798902</v>
       </c>
     </row>
     <row r="24">
@@ -1336,31 +1336,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5153891899923218</v>
+        <v>0.4430811533982754</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2518766256384821</v>
+        <v>0.2455377362309673</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2566368582264655</v>
+        <v>0.2596340511404278</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6933608986503346</v>
+        <v>0.7002616253948141</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2384038139055183</v>
+        <v>0.2728513629544102</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1187684975038844</v>
+        <v>0.1170271621868154</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.5139476678841756</v>
+        <v>0.5057724646684516</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1883087719962875</v>
+        <v>0.1812390024525444</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1686237313972328</v>
+        <v>0.1695422758877406</v>
       </c>
     </row>
     <row r="25">
@@ -1381,7 +1381,7 @@
         <v>0.1647020477351738</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.07323913421429043</v>
+        <v>0.07323913421429047</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>0.1463621331786831</v>
@@ -1411,28 +1411,28 @@
       </c>
       <c r="C26" s="5" t="inlineStr"/>
       <c r="D26" s="5" t="n">
-        <v>0.04179519333608043</v>
+        <v>0.04239760886847992</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.04173406910150645</v>
+        <v>0.0420955034617408</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.09673971428051284</v>
+        <v>0.0961161440424584</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.02975184010104074</v>
+        <v>0.02740228434314182</v>
       </c>
       <c r="I26" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1152959851690059</v>
+        <v>0.1140558449097738</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.04125733380724724</v>
+        <v>0.04022193739640146</v>
       </c>
     </row>
     <row r="27">
@@ -1444,28 +1444,28 @@
       </c>
       <c r="C27" s="5" t="inlineStr"/>
       <c r="D27" s="5" t="n">
-        <v>0.3463168528203994</v>
+        <v>0.3529742586600357</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1208929135358049</v>
+        <v>0.1258794206135414</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.4363209534515337</v>
+        <v>0.4346191138072524</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.7006573842849591</v>
+        <v>0.6985431759663991</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.08828740470130012</v>
+        <v>0.08937238131994762</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1571936967253047</v>
+        <v>0.1669433551866819</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3990799830729149</v>
+        <v>0.4225042048552977</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.0899651495678916</v>
+        <v>0.08732210172044745</v>
       </c>
     </row>
     <row r="28">
@@ -1495,7 +1495,7 @@
         <v>0.1140044804643591</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.07265279448669638</v>
+        <v>0.0726527944866964</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.1541809393775411</v>
@@ -1504,7 +1504,7 @@
         <v>0.1325868921126236</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.08594112537005211</v>
+        <v>0.08594112537005212</v>
       </c>
     </row>
     <row r="29">
@@ -1515,31 +1515,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.06786992046948946</v>
+        <v>0.06849935987186968</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.09684172350371255</v>
+        <v>0.09425805024546974</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.0768936675397817</v>
+        <v>0.0760141445166426</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1094933886086231</v>
+        <v>0.1089055714289755</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.06121745751657975</v>
+        <v>0.05836799519533228</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.05713289448839835</v>
+        <v>0.05739803517462967</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.09957490247078504</v>
+        <v>0.1057949689035786</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.09636712251178511</v>
+        <v>0.09271824895462728</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.07237665745842482</v>
+        <v>0.0722577442665724</v>
       </c>
     </row>
     <row r="30">
@@ -1550,31 +1550,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2267252243656264</v>
+        <v>0.2149385206294889</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.211324891134571</v>
+        <v>0.201887416071744</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1244494632997211</v>
+        <v>0.1231635693200616</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2674929413246837</v>
+        <v>0.2742737836556378</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1940928934743581</v>
+        <v>0.1931950527871795</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.09198426324093016</v>
+        <v>0.09104620030575747</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.2143753298656221</v>
+        <v>0.2164450712193177</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1815658055732495</v>
+        <v>0.1795149900409775</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.1014593771050384</v>
+        <v>0.1016033005307841</v>
       </c>
     </row>
     <row r="31">
@@ -1810,26 +1810,26 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1710</v>
+        <v>1200</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1480</v>
+        <v>1494</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1109</v>
+        <v>1097</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2166</v>
+        <v>2155</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1181</v>
+        <v>1077</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>3777</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="7">
@@ -1840,29 +1840,29 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4881</v>
+        <v>5084</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>10681</v>
+        <v>10599</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>8762</v>
+        <v>9008</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>8263</v>
+        <v>8447</v>
       </c>
       <c r="G7" s="6" t="inlineStr"/>
       <c r="H7" s="6" t="n">
-        <v>5460</v>
+        <v>5417</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>10911</v>
+        <v>10969</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>10296</v>
+        <v>11348</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>11652</v>
+        <v>11668</v>
       </c>
     </row>
     <row r="8">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="6" t="n">
-        <v>3075</v>
+        <v>2597</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
@@ -1960,16 +1960,16 @@
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1221</v>
+        <v>1209</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1173</v>
+        <v>1196</v>
       </c>
       <c r="J10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>4927</v>
+        <v>5346</v>
       </c>
     </row>
     <row r="11">
@@ -1980,29 +1980,29 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9191</v>
+        <v>8973</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>13126</v>
+        <v>12714</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>6770</v>
+        <v>6678</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4463</v>
+        <v>4288</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>6890</v>
+        <v>6871</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12197</v>
+        <v>12149</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>5994</v>
+        <v>4462</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>17129</v>
+        <v>16263</v>
       </c>
     </row>
     <row r="12">
@@ -2090,26 +2090,26 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>718</v>
+        <v>684</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1254</v>
+        <v>1339</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2492</v>
+        <v>2450</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1086</v>
+        <v>1108</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>5379</v>
+        <v>5616</v>
       </c>
     </row>
     <row r="15">
@@ -2120,29 +2120,29 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4683</v>
+        <v>4638</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>6472</v>
+        <v>6467</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7769</v>
+        <v>7280</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="n">
-        <v>5542</v>
+        <v>6801</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>9895</v>
+        <v>9644</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>4522</v>
+        <v>4773</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>9050</v>
+        <v>9704</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>14615</v>
+        <v>15183</v>
       </c>
     </row>
     <row r="16">
@@ -2230,28 +2230,28 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1885</v>
+        <v>1856</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2579</v>
+        <v>2709</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1064</v>
+        <v>1116</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>5093</v>
+        <v>4740</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1022</v>
+        <v>1029</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4041</v>
+        <v>4154</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>9420</v>
+        <v>9085</v>
       </c>
     </row>
     <row r="19">
@@ -2262,31 +2262,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8134</v>
+        <v>7820</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>9748</v>
+        <v>9791</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10860</v>
+        <v>10766</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>4085</v>
+        <v>4009</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>9302</v>
+        <v>8505</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>12589</v>
+        <v>13077</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>11434</v>
+        <v>11993</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>14385</v>
+        <v>15538</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>19972</v>
+        <v>20567</v>
       </c>
     </row>
     <row r="20">
@@ -2391,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>438</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23">
@@ -2402,27 +2402,27 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>4073</v>
+        <v>3984</v>
       </c>
       <c r="D23" s="6" t="n">
         <v>2972</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3154</v>
+        <v>3375</v>
       </c>
       <c r="F23" s="6" t="inlineStr"/>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>2325</v>
+        <v>2099</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>5039</v>
+        <v>5093</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>4011</v>
+        <v>3881</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>3989</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="24">
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="inlineStr"/>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="27">
@@ -2538,27 +2538,27 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4239</v>
+        <v>4778</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5451</v>
+        <v>4524</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4451</v>
+        <v>4350</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>5355</v>
+        <v>4654</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>4947</v>
+        <v>6100</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>5367</v>
+        <v>5612</v>
       </c>
     </row>
     <row r="28">
@@ -2646,28 +2646,28 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1160</v>
+        <v>1131</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>14959</v>
+        <v>15599</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>4919</v>
+        <v>5073</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>6164</v>
+        <v>6129</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>7001</v>
+        <v>6335</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>2952</v>
+        <v>2237</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>24291</v>
+        <v>24980</v>
       </c>
     </row>
     <row r="31">
@@ -2678,31 +2678,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>9264</v>
+        <v>7964</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>10088</v>
+        <v>9834</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>31755</v>
+        <v>32126</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>15715</v>
+        <v>15871</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>6723</v>
+        <v>7694</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>16082</v>
+        <v>15847</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>20886</v>
+        <v>20554</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>12852</v>
+        <v>12370</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>43698</v>
+        <v>43936</v>
       </c>
     </row>
     <row r="32">
@@ -2788,28 +2788,28 @@
       </c>
       <c r="C34" s="6" t="inlineStr"/>
       <c r="D34" s="6" t="n">
-        <v>1065</v>
+        <v>1080</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>6002</v>
+        <v>6054</v>
       </c>
       <c r="F34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>4420</v>
+        <v>4071</v>
       </c>
       <c r="I34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>4208</v>
+        <v>4162</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>12063</v>
+        <v>11760</v>
       </c>
     </row>
     <row r="35">
@@ -2821,28 +2821,28 @@
       </c>
       <c r="C35" s="6" t="inlineStr"/>
       <c r="D35" s="6" t="n">
-        <v>8825</v>
+        <v>8994</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>17387</v>
+        <v>18104</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>6564</v>
+        <v>6539</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>7716</v>
+        <v>7692</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>13116</v>
+        <v>13277</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>6602</v>
+        <v>7012</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>14564</v>
+        <v>15419</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>26304</v>
+        <v>25531</v>
       </c>
     </row>
     <row r="36">
@@ -2927,31 +2927,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>7649</v>
+        <v>7720</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>15258</v>
+        <v>14851</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>44137</v>
+        <v>43632</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>11936</v>
+        <v>11872</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>6661</v>
+        <v>6351</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>30281</v>
+        <v>30421</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>22078</v>
+        <v>23457</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>25669</v>
+        <v>24697</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>79904</v>
+        <v>79773</v>
       </c>
     </row>
     <row r="39">
@@ -2962,31 +2962,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>25553</v>
+        <v>24225</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>33296</v>
+        <v>31809</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>71434</v>
+        <v>70696</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>29160</v>
+        <v>29899</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>21118</v>
+        <v>21020</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>48752</v>
+        <v>48255</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>47531</v>
+        <v>47990</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>48362</v>
+        <v>47816</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>112011</v>
+        <v>112170</v>
       </c>
     </row>
     <row r="40">
